--- a/biology/Zoologie/Deudorix/Deudorix.xlsx
+++ b/biology/Zoologie/Deudorix/Deudorix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deudorix est un genre de lépidoptères de la famille des Lycaenidae et de la sous-famille des  Theclinae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Deudorix a été donné par William Chapman Hewitson en 1863.
 Ils se nomment Cornelians et Playboys en anglais.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Résidant en Afrique
-Deudorix antalus (Hopffer, 1855); présent en Afrique et à Madagascar.
+          <t>Résidant en Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deudorix antalus (Hopffer, 1855); présent en Afrique et à Madagascar.
 Deudorix badhami Carcasson, 1961; présent dans le sud de l'Afrique
 Deudorix batikeli (Boisduval, 1833); présent à Madagascar.
 Deudorix batikelides Holland, 1920
@@ -584,18 +603,52 @@
 Deudorix ufipa Kielland, 1978
 Deudorix vansomereni Stempffer, 1951; dans l'est de l'Afrique.
 Deudorix vansoni Pennington, 1948; dans le sud-est de l'Afrique.
-Deudorix wardii (Mabille, 1878); à Madagascar.
-Résidant en Asie du sud-est et Océanie
-Deudorix affinis (Rothschild, 1915); en Nouvelle-Guinée.
+Deudorix wardii (Mabille, 1878); à Madagascar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deudorix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deudorix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Résidant en Asie du sud-est et Océanie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deudorix affinis (Rothschild, 1915); en Nouvelle-Guinée.
 Deudorix apayao Schröder et Treadaway, 1983;
 Deudorix ceramensis Ribbe, 1901
 Deudorix democles Miskin, 1884; en Australie.
 Deudorix diara Swinhoe, 1896.
-Deudorix diovis Hewitson, [1863]
+Deudorix diovis Hewitson, 
 Deudorix dohertyi Tytler, 1915. en inde.
 Deudorix elioti Corbet, 1940; en Thaïlande et en Malaisie.
 Deudorix epijarbas (Moore, 1857)
-Deudorix epijarbas epijarbas en Inde, Océanie dont la Nouvelle-Calédonie[1].
+Deudorix epijarbas epijarbas en Inde, Océanie dont la Nouvelle-Calédonie.
 Deudorix epijarbas amatius Fruhstorfer, 1912
 Deudorix epijarbas ancus Fruhstorfer, 1912; dans le nord de l'Inde.
 Deudorix epijarbas biaka Joicey &amp; Talbo
@@ -616,11 +669,11 @@
 Deudorix epirus despoena Hewitson;
 Deudorix epirus eos Hewitson
 Deudorix epirus kallios Fruhstorfer;
-Deudorix gaetulia de Nicéville, [1893];
+Deudorix gaetulia de Nicéville, ;
 Deudorix hainana Chou et Gu, 1994;
-Deudorix hypargyria (Elwes, [1893])
+Deudorix hypargyria (Elwes, )
 Deudorix isocrates (Fabricius, 1793); en Inde.
-Deudorix kessuma (Horsfield, [1829])
+Deudorix kessuma (Horsfield, )
 Deudorix kessuma kessuma à Java.
 Deudorix kessuma clearchus (Fruhstorfer, 1912);
 Deudorix kessuma deliochus Hewitson, 1874;
@@ -636,14 +689,14 @@
 Deudorix philippinensis Schröder, Treadaway et Hayashi, 1981; aux Philippines.
 Deudorix rapaloides (Naritomi, 1941); à Taïwan.
 Deudorix sankakuhonis Matsumura, 1938; à Taïwan.
-Deudorix smilis Hewitson, [1863]
+Deudorix smilis Hewitson, 
 Deudorix smilis smilis en Malaisie, Birmanie et Thaïlande.
 Deudorix smilis dalyensis (Le Souef et Tindale, 1970); en Australie.
 Deudorix smilis silo Hewitson; à Bornéo.
 Deudorix smilis sylvia (D'Abrera, 1971)
 Deudorix smilis vocetius Fruhstorfer, 1912;
 Deudorix staudingeri Druce, 1895; à Bornéo et en Malaisie.
-Deudorix subguttata (Elwes, [1893])
+Deudorix subguttata (Elwes, )
 Deudorix subguttata subguttata; en Birmanie.
 Deudorix subguttata malaya (Pendlebury &amp; Corbet, 1933);  en Malaisie.
 Deudorix sumatrensis Fruhstorfer, 1912.
